--- a/Dokumentation/Organisation/Aufwandsschaetzung_0.3.xlsx
+++ b/Dokumentation/Organisation/Aufwandsschaetzung_0.3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HTL-Perg\3. Klasse\SYP\DriveSense\Dokumentation\Organisation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\2025_26\SYPRET\DriveSense\Dokumentation\Organisation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570888CE-4222-487E-B0AF-63D506461202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D797C0AB-AA28-498F-85C8-D8FAC304EB67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3384" yWindow="3384" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aufwandschätzung" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="101">
   <si>
     <t>Ebene</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Aufgabe</t>
   </si>
   <si>
-    <t>Soll-Stunden</t>
-  </si>
-  <si>
     <t>Ist-Stunden</t>
   </si>
   <si>
@@ -311,12 +308,6 @@
     <t>Funktionstest (Web &amp; App)</t>
   </si>
   <si>
-    <t>Schätzungen in Mitarbeiterstunden</t>
-  </si>
-  <si>
-    <t>⌀ Schätzung</t>
-  </si>
-  <si>
     <t>MySQL Datenbank implementieren</t>
   </si>
   <si>
@@ -332,15 +323,6 @@
     <t>1.6</t>
   </si>
   <si>
-    <t>Spalte1</t>
-  </si>
-  <si>
-    <t>Spalte2</t>
-  </si>
-  <si>
-    <t>Spalte3</t>
-  </si>
-  <si>
     <t>Entwicklungsumgebungen einrichten</t>
   </si>
   <si>
@@ -348,6 +330,12 @@
   </si>
   <si>
     <t>Wissen für App Erstellung aneignen</t>
+  </si>
+  <si>
+    <t>Ø Schätzung (Soll-MA-Stunden)</t>
+  </si>
+  <si>
+    <t>Gesamt</t>
   </si>
 </sst>
 </file>
@@ -370,8 +358,7 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -393,12 +380,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -415,23 +402,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -476,16 +473,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1449D87B-F32E-4C26-BAE3-4976F948F37B}" name="Tabelle2" displayName="Tabelle2" ref="A1:K48" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:K48" xr:uid="{1449D87B-F32E-4C26-BAE3-4976F948F37B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1449D87B-F32E-4C26-BAE3-4976F948F37B}" name="Tabelle2" displayName="Tabelle2" ref="A1:K47" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:K47" xr:uid="{1449D87B-F32E-4C26-BAE3-4976F948F37B}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{E8F675F9-1C93-40E7-8E9E-8B166EAF1C74}" name="Ebene"/>
     <tableColumn id="2" xr3:uid="{B6EE27EE-76B8-465C-8058-B5C39BDC2371}" name="Aufgabe"/>
-    <tableColumn id="3" xr3:uid="{1890D48C-756E-4C90-B565-6D8A9FF058EC}" name="Schätzungen in Mitarbeiterstunden"/>
-    <tableColumn id="4" xr3:uid="{DCBC915B-FBA7-408B-965C-F00644F48D7D}" name="Spalte1"/>
-    <tableColumn id="5" xr3:uid="{DCC1A44A-6BBE-493F-851A-578DCF9BE266}" name="Spalte2"/>
-    <tableColumn id="6" xr3:uid="{FC590683-3EA5-4EC9-B287-5336B779348D}" name="Spalte3"/>
-    <tableColumn id="7" xr3:uid="{15D9E014-198F-4E07-BF5C-FDDFE788A919}" name="⌀ Schätzung"/>
+    <tableColumn id="3" xr3:uid="{1890D48C-756E-4C90-B565-6D8A9FF058EC}" name="Eric"/>
+    <tableColumn id="4" xr3:uid="{DCBC915B-FBA7-408B-965C-F00644F48D7D}" name="Christof"/>
+    <tableColumn id="5" xr3:uid="{DCC1A44A-6BBE-493F-851A-578DCF9BE266}" name="Daniel"/>
+    <tableColumn id="6" xr3:uid="{FC590683-3EA5-4EC9-B287-5336B779348D}" name="Niklas"/>
+    <tableColumn id="7" xr3:uid="{15D9E014-198F-4E07-BF5C-FDDFE788A919}" name="Ø Schätzung (Soll-MA-Stunden)">
+      <calculatedColumnFormula>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="8" xr3:uid="{A739C55C-971E-4CD4-B52C-0D40350E395B}" name="Ist-Stunden"/>
     <tableColumn id="9" xr3:uid="{0895D37D-EA7F-47C8-AD16-6143B28C06CC}" name="Abweichung (Std.)"/>
     <tableColumn id="10" xr3:uid="{64A9A77C-10FA-460A-B67E-CD87C00870E6}" name="Abweichung (%)"/>
@@ -780,359 +779,422 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.5546875" customWidth="1"/>
     <col min="2" max="2" width="60" customWidth="1"/>
-    <col min="3" max="3" width="32.44140625" customWidth="1"/>
+    <col min="3" max="3" width="26.109375" customWidth="1"/>
     <col min="4" max="6" width="13.5546875" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" customWidth="1"/>
-    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="7" max="7" width="30.77734375" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
     <col min="10" max="10" width="16.5546875" customWidth="1"/>
     <col min="11" max="11" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <f>SUM(C3:C8)</f>
+        <v>34.5</v>
+      </c>
+      <c r="D2">
+        <f>SUM(D3:D8)</f>
+        <v>33</v>
+      </c>
+      <c r="E2">
+        <f>SUM(E3:E8)</f>
+        <v>36.5</v>
+      </c>
+      <c r="F2">
+        <f>SUM(F3:F8)</f>
+        <v>30</v>
+      </c>
+      <c r="G2">
+        <f>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</f>
+        <v>33.5</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <f>SUM(C4:C9)</f>
-        <v>27.5</v>
+        <v>2.5</v>
       </c>
       <c r="D3">
-        <f>SUM(D4:D9)</f>
-        <v>27</v>
+        <v>2.5</v>
       </c>
       <c r="E3">
-        <f>SUM(E4:E9)</f>
-        <v>29.5</v>
+        <v>2.5</v>
       </c>
       <c r="F3">
-        <f>SUM(F4:F9)</f>
-        <v>24</v>
+        <v>2.5</v>
       </c>
       <c r="G3">
-        <f>SUM(G4:G9)</f>
-        <v>27</v>
+        <f>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</f>
+        <v>2.5</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>2.5</v>
+        <v>8</v>
       </c>
       <c r="E4">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="F4">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <f>SUM(C4:F4)/4</f>
-        <v>2.5</v>
+        <f>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</f>
+        <v>6.25</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>11</v>
+      <c r="A5" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5">
         <v>6</v>
-      </c>
-      <c r="D5">
-        <v>8</v>
       </c>
       <c r="E5">
         <v>7</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G5">
-        <f>SUM(C5:F5)/4</f>
-        <v>6.25</v>
+        <f>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</f>
+        <v>6.5</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
-        <v>102</v>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>2.5</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>2.5</v>
+      </c>
+      <c r="G6">
+        <f>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</f>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>7</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <f>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</f>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>12</v>
+      </c>
+      <c r="F8">
+        <v>9</v>
+      </c>
+      <c r="G8">
+        <f>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</f>
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="3">
+        <f>SUM(C10:C13)</f>
+        <v>55</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" ref="D9:F9" si="0">SUM(D10:D13)</f>
+        <v>54</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="G9" s="3">
+        <f>SUM(G10:G13)</f>
+        <v>56.25</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10">
         <v>14</v>
       </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>2.5</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>2.5</v>
-      </c>
-      <c r="G7">
-        <f>SUM(C7:F7)/4</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-      <c r="D8">
-        <v>6</v>
-      </c>
-      <c r="E8">
-        <v>7</v>
-      </c>
-      <c r="F8">
-        <v>6</v>
-      </c>
-      <c r="G8">
-        <f>SUM(C8:F8)/4</f>
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9">
-        <v>10</v>
-      </c>
-      <c r="D9">
-        <v>8</v>
-      </c>
-      <c r="E9">
-        <v>12</v>
-      </c>
-      <c r="F9">
-        <v>9</v>
-      </c>
-      <c r="G9">
-        <f>SUM(C9:F9)/4</f>
-        <v>9.75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
+      <c r="D10">
+        <v>14</v>
+      </c>
+      <c r="E10">
+        <v>14</v>
+      </c>
+      <c r="F10">
+        <v>15</v>
+      </c>
+      <c r="G10">
+        <f>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</f>
+        <v>14.25</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D11">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E11">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F11">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G11">
-        <f>SUM(C11:F11)/4</f>
-        <v>14.25</v>
+        <f>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</f>
+        <v>6.5</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12">
+        <v>14</v>
+      </c>
+      <c r="D12">
+        <v>12</v>
+      </c>
+      <c r="E12">
+        <v>15</v>
+      </c>
+      <c r="F12">
+        <v>16</v>
+      </c>
+      <c r="G12">
+        <f>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</f>
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13">
         <v>20</v>
       </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12">
-        <v>7</v>
-      </c>
-      <c r="D12">
-        <v>6</v>
-      </c>
-      <c r="E12">
-        <v>6</v>
-      </c>
-      <c r="F12">
-        <v>7</v>
-      </c>
-      <c r="G12">
-        <f>SUM(C12:F12)/4</f>
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="D13">
         <v>22</v>
       </c>
-      <c r="B13" t="s">
+      <c r="E13">
+        <v>25</v>
+      </c>
+      <c r="F13">
+        <v>18</v>
+      </c>
+      <c r="G13">
+        <f>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</f>
+        <v>21.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C13">
-        <v>14</v>
-      </c>
-      <c r="D13">
-        <v>12</v>
-      </c>
-      <c r="E13">
-        <v>15</v>
-      </c>
-      <c r="F13">
-        <v>16</v>
-      </c>
-      <c r="G13">
-        <f>SUM(C13:F13)/4</f>
-        <v>14.25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B14" t="s">
-        <v>104</v>
-      </c>
+      <c r="B14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="3">
+        <f>SUM(C15:C17)</f>
+        <v>10</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" ref="D14:G14" si="1">SUM(D15:D17)</f>
+        <v>10</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="5" t="s">
+      <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15">
+        <v>2.5</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>2.5</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <f>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</f>
+        <v>2.75</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16">
         <v>2.5</v>
@@ -1147,365 +1209,396 @@
         <v>3</v>
       </c>
       <c r="G16">
-        <f>SUM(C16:F16)/4</f>
+        <f>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</f>
         <v>2.75</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E17">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G17">
-        <f>SUM(C17:F17)/4</f>
-        <v>2.75</v>
+        <f>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</f>
+        <v>4.5</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="A18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C18">
-        <v>5</v>
-      </c>
-      <c r="D18">
-        <v>4</v>
-      </c>
-      <c r="E18">
-        <v>5</v>
-      </c>
-      <c r="F18">
-        <v>4</v>
-      </c>
-      <c r="G18">
-        <f>SUM(C18:F18)/4</f>
-        <v>4.5</v>
-      </c>
+      <c r="B18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="3">
+        <f>SUM(C19:C23)</f>
+        <v>19</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" ref="D18:G18" si="2">SUM(D19:D23)</f>
+        <v>20.5</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="F18" s="3">
+        <f t="shared" si="2"/>
+        <v>17.5</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" si="2"/>
+        <v>18.25</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="5" t="s">
+      <c r="A19" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <f>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</f>
+        <v>1.5</v>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G20">
-        <f>SUM(C20:F20)/4</f>
-        <v>1.5</v>
+        <f>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</f>
+        <v>0.75</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D21">
-        <v>0.5</v>
+        <v>8</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F21">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="G21">
-        <f>SUM(C21:F21)/4</f>
-        <v>0.75</v>
+        <f>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</f>
+        <v>6.5</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D22">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G22">
-        <f>SUM(C22:F22)/4</f>
-        <v>6.5</v>
+        <f>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</f>
+        <v>3.5</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="C23">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>6</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
+      <c r="F23">
+        <v>6</v>
+      </c>
+      <c r="G23">
+        <f>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</f>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="A24" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C24">
-        <v>7</v>
-      </c>
-      <c r="D24">
-        <v>6</v>
-      </c>
-      <c r="E24">
-        <v>5</v>
-      </c>
-      <c r="F24">
-        <v>6</v>
+      <c r="B24" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="3">
+        <f>C25+C35</f>
+        <v>209</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" ref="D24:F24" si="3">D25+D35</f>
+        <v>272</v>
+      </c>
+      <c r="E24" s="3">
+        <f t="shared" si="3"/>
+        <v>201</v>
+      </c>
+      <c r="F24" s="3">
+        <f t="shared" si="3"/>
+        <v>254</v>
       </c>
       <c r="G24">
-        <f>SUM(C24:F24)/4</f>
-        <v>6</v>
-      </c>
+        <f>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</f>
+        <v>234</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="5" t="s">
+      <c r="A25" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="5">
-        <f>C26+C36</f>
-        <v>223</v>
-      </c>
-      <c r="D25" s="5">
-        <f t="shared" ref="D25:G25" si="0">D26+D36</f>
-        <v>291</v>
-      </c>
-      <c r="E25" s="5">
-        <f t="shared" si="0"/>
-        <v>224</v>
-      </c>
-      <c r="F25" s="5">
-        <f t="shared" si="0"/>
-        <v>286</v>
-      </c>
-      <c r="G25" s="5">
-        <f t="shared" si="0"/>
-        <v>256</v>
-      </c>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
+      <c r="B25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25">
+        <f>C26+C30</f>
+        <v>190</v>
+      </c>
+      <c r="D25">
+        <f>D26+D30</f>
+        <v>250</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ref="E25:F25" si="4">E26+E30</f>
+        <v>178</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="4"/>
+        <v>228</v>
+      </c>
+      <c r="G25">
+        <f>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</f>
+        <v>211.5</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="C26">
-        <f>C27+C31</f>
-        <v>190</v>
+        <f>SUM(C27:C29)</f>
+        <v>55</v>
       </c>
       <c r="D26">
-        <f>D27+D31</f>
-        <v>250</v>
+        <f t="shared" ref="D26:F26" si="5">SUM(D27:D29)</f>
+        <v>66</v>
       </c>
       <c r="E26">
-        <f t="shared" ref="E26:F26" si="1">E27+E31</f>
-        <v>178</v>
+        <f t="shared" si="5"/>
+        <v>48</v>
       </c>
       <c r="F26">
-        <f t="shared" si="1"/>
-        <v>228</v>
+        <f t="shared" si="5"/>
+        <v>66</v>
       </c>
       <c r="G26">
-        <f>SUM(C26:F26)/4</f>
-        <v>211.5</v>
+        <f>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</f>
+        <v>58.75</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C27">
-        <f>SUM(C28:C30)</f>
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="D27">
-        <f t="shared" ref="D27:G27" si="2">SUM(D28:D30)</f>
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="E27">
-        <f t="shared" si="2"/>
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="F27">
-        <f t="shared" si="2"/>
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="G27">
-        <f t="shared" si="2"/>
-        <v>58.75</v>
+        <f>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</f>
+        <v>36.25</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C28">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D28">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="E28">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F28">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G28">
-        <f>SUM(C28:F28)/4</f>
-        <v>36.25</v>
+        <f>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</f>
+        <v>17.75</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C29">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D29">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E29">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F29">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G29">
-        <f>SUM(C29:F29)/4</f>
-        <v>17.75</v>
+        <f>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</f>
+        <v>4.75</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C30">
-        <v>5</v>
+        <f>SUM(C31:C34)</f>
+        <v>135</v>
       </c>
       <c r="D30">
-        <v>5</v>
+        <f t="shared" ref="D30:F30" si="6">SUM(D31:D34)</f>
+        <v>184</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>130</v>
       </c>
       <c r="F30">
-        <v>6</v>
+        <f t="shared" si="6"/>
+        <v>162</v>
       </c>
       <c r="G30">
-        <f>SUM(C30:F30)/4</f>
-        <v>4.75</v>
+        <f>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</f>
+        <v>152.75</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C31">
-        <f>SUM(C32:C35)</f>
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="D31">
-        <f t="shared" ref="D31:G31" si="3">SUM(D32:D35)</f>
-        <v>184</v>
+        <v>60</v>
       </c>
       <c r="E31">
-        <f t="shared" si="3"/>
-        <v>130</v>
+        <v>45</v>
       </c>
       <c r="F31">
-        <f t="shared" si="3"/>
-        <v>162</v>
+        <v>60</v>
       </c>
       <c r="G31">
-        <f t="shared" si="3"/>
-        <v>152.75</v>
+        <f>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</f>
+        <v>52.5</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -1513,23 +1606,23 @@
         <v>57</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C32">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D32">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E32">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="F32">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="G32">
-        <f>SUM(C32:F32)/4</f>
-        <v>52.5</v>
+        <f>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</f>
+        <v>20.5</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -1537,71 +1630,75 @@
         <v>58</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C33">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="D33">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="E33">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="F33">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="G33">
-        <f>SUM(C33:F33)/4</f>
-        <v>20.5</v>
+        <f>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</f>
+        <v>76.75</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="B34" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C34">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="D34">
-        <v>90</v>
+        <v>4</v>
       </c>
       <c r="E34">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="F34">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="G34">
-        <f>SUM(C34:F34)/4</f>
-        <v>76.75</v>
+        <f>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</f>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="B35" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="C35">
-        <v>3</v>
+        <f>SUM(C36:C38)</f>
+        <v>19</v>
       </c>
       <c r="D35">
-        <v>4</v>
+        <f t="shared" ref="D35:F35" si="7">SUM(D36:D38)</f>
+        <v>22</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <f t="shared" si="7"/>
+        <v>23</v>
       </c>
       <c r="F35">
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>26</v>
       </c>
       <c r="G35">
-        <f>SUM(C35:F35)/4</f>
-        <v>3</v>
+        <f>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</f>
+        <v>22.5</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -1609,27 +1706,23 @@
         <v>61</v>
       </c>
       <c r="B36" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C36">
-        <f>SUM(C37:C39)</f>
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D36">
-        <f t="shared" ref="D36:G36" si="4">SUM(D37:D39)</f>
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="E36">
-        <f t="shared" si="4"/>
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="F36">
-        <f t="shared" si="4"/>
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="G36">
-        <f t="shared" si="4"/>
-        <v>44.5</v>
+        <f>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</f>
+        <v>6.75</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -1637,108 +1730,127 @@
         <v>62</v>
       </c>
       <c r="B37" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C37">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D37">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E37">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="F37">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="G37">
-        <f>SUM(C37:F37)/4</f>
-        <v>28.75</v>
+        <f>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</f>
+        <v>8.25</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>63</v>
-      </c>
-      <c r="B38" t="s">
-        <v>95</v>
+      <c r="A38" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="C38">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D38">
         <v>8</v>
       </c>
       <c r="E38">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F38">
         <v>9</v>
       </c>
       <c r="G38">
-        <f>SUM(C38:F38)/4</f>
-        <v>8.25</v>
+        <f>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</f>
+        <v>7.5</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C39">
-        <v>6</v>
-      </c>
-      <c r="D39">
-        <v>8</v>
-      </c>
-      <c r="E39">
+      <c r="A39" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" s="3">
+        <f>SUM(C40:C44)</f>
+        <v>47</v>
+      </c>
+      <c r="D39" s="3">
+        <f t="shared" ref="D39:G39" si="8">SUM(D40:D44)</f>
+        <v>43</v>
+      </c>
+      <c r="E39" s="3">
+        <f t="shared" si="8"/>
+        <v>44.5</v>
+      </c>
+      <c r="F39" s="3">
+        <f t="shared" si="8"/>
+        <v>33.5</v>
+      </c>
+      <c r="G39" s="3">
+        <f t="shared" si="8"/>
+        <v>42</v>
+      </c>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40">
+        <v>4</v>
+      </c>
+      <c r="D40">
+        <v>4</v>
+      </c>
+      <c r="E40">
         <v>7</v>
       </c>
-      <c r="F39">
-        <v>9</v>
-      </c>
-      <c r="G39">
-        <f>SUM(C39:F39)/4</f>
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
+      <c r="F40">
+        <v>5.5</v>
+      </c>
+      <c r="G40">
+        <f>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</f>
+        <v>5.125</v>
+      </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>66</v>
       </c>
       <c r="B41" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C41">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D41">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E41">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="F41">
-        <v>5.5</v>
+        <v>5</v>
+      </c>
+      <c r="G41">
+        <f>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</f>
+        <v>6.375</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -1746,19 +1858,23 @@
         <v>67</v>
       </c>
       <c r="B42" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C42">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D42">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E42">
-        <v>6.5</v>
+        <v>1</v>
       </c>
       <c r="F42">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <f>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</f>
+        <v>1.25</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -1766,117 +1882,163 @@
         <v>68</v>
       </c>
       <c r="B43" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C43">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G43">
-        <f>SUM(C43:F43)/4</f>
-        <v>1.25</v>
+        <f>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</f>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44">
+        <v>10</v>
+      </c>
+      <c r="D44">
+        <v>10</v>
+      </c>
+      <c r="E44">
+        <v>10</v>
+      </c>
+      <c r="F44">
+        <v>7</v>
+      </c>
+      <c r="G44">
+        <f>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</f>
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B44" t="s">
-        <v>97</v>
-      </c>
-      <c r="C44">
+      <c r="B45" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" s="3">
+        <f>SUM(C46:C47)</f>
+        <v>36</v>
+      </c>
+      <c r="D45" s="3">
+        <f t="shared" ref="D45:G45" si="9">SUM(D46:D47)</f>
+        <v>28</v>
+      </c>
+      <c r="E45" s="3">
+        <f t="shared" si="9"/>
+        <v>32</v>
+      </c>
+      <c r="F45" s="3">
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
-      <c r="D44">
+      <c r="G45" s="3">
+        <f t="shared" si="9"/>
+        <v>30.25</v>
+      </c>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>71</v>
+      </c>
+      <c r="B46" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46">
+        <v>27</v>
+      </c>
+      <c r="D46">
         <v>20</v>
       </c>
-      <c r="E44">
-        <v>20</v>
-      </c>
-      <c r="F44">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>85</v>
-      </c>
-      <c r="B45" t="s">
-        <v>84</v>
-      </c>
-      <c r="C45">
-        <v>10</v>
-      </c>
-      <c r="D45">
-        <v>10</v>
-      </c>
-      <c r="E45">
-        <v>10</v>
-      </c>
-      <c r="F45">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
+      <c r="E46">
+        <v>22</v>
+      </c>
+      <c r="F46">
+        <v>17</v>
+      </c>
+      <c r="G46">
+        <f>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</f>
+        <v>21.5</v>
+      </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B47" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C47">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D47">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E47">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F47">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G47">
-        <f>SUM(C47:F47)/4</f>
-        <v>21.5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>74</v>
-      </c>
-      <c r="B48" t="s">
-        <v>75</v>
-      </c>
-    </row>
+        <f>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</f>
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A48" s="4"/>
+      <c r="B48" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48" s="6">
+        <f>SUM(C45,C39,C24,C18,C14,C9,C2)</f>
+        <v>410.5</v>
+      </c>
+      <c r="D48" s="6">
+        <f t="shared" ref="D48:F48" si="10">SUM(D45,D39,D24,D18,D14,D9,D2)</f>
+        <v>460.5</v>
+      </c>
+      <c r="E48" s="6">
+        <f t="shared" si="10"/>
+        <v>400</v>
+      </c>
+      <c r="F48" s="6">
+        <f t="shared" si="10"/>
+        <v>426</v>
+      </c>
+      <c r="G48" s="6">
+        <f>G45+G39+G24+G18+G14+G9+G2</f>
+        <v>424.25</v>
+      </c>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+    </row>
+    <row r="49" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
